--- a/tables/xls/it/72_Materiali attesi.xlsx
+++ b/tables/xls/it/72_Materiali attesi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>ORGANIZZAZIONE</t>
   </si>
@@ -138,10 +138,16 @@
     <t>Sì</t>
   </si>
   <si>
+    <t>D.V.G.</t>
+  </si>
+  <si>
     <t>COD. INV.</t>
   </si>
   <si>
     <t>COD. ORGANIZZAZIONE</t>
+  </si>
+  <si>
+    <t>VG</t>
   </si>
   <si>
     <t>Testo Lungo</t>
@@ -567,15 +573,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -688,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -706,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -762,26 +759,13 @@
         <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
@@ -875,19 +859,6 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
@@ -984,22 +955,12 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
       <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="F11"/>
       <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
@@ -1049,80 +1010,34 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1130,7 +1045,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1138,7 +1053,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1154,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1186,21 +1101,12 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>